--- a/src/main/resources/static/excel/裁剪工艺.xlsx
+++ b/src/main/resources/static/excel/裁剪工艺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="13405"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>编码</t>
   </si>
@@ -42,45 +42,16 @@
   <si>
     <t>修改</t>
   </si>
-  <si>
-    <t>CJ-01</t>
-  </si>
-  <si>
-    <t>对条、对格要求</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>E后技术负责人</t>
-  </si>
-  <si>
-    <t>CJ-02</t>
-  </si>
-  <si>
-    <t>排版要求(条纹)</t>
-  </si>
-  <si>
-    <t>单件一顺排版，避色差；
-拉布按明细单小样（样衣做参考）为正面，拉布顺直，拉平，注意布次，纬斜，刀口准确，不偏刀，避倒顺光；印花和绣花面料需编号；衬胶点朝上裁剪</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>M后技术负责人</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-7804]yy/m/d\ AM/PMh:mm"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -556,7 +527,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,24 +675,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1042,15 +1001,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A2" sqref="$A2:$XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,361 +1038,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>43283.5430555556</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4">
-        <v>44725.9631944444</v>
-      </c>
-    </row>
-    <row r="3" ht="28" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4">
-        <v>43266.4131944444</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44725.9631944444</v>
-      </c>
-    </row>
-    <row r="4" ht="42" customHeight="1" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" ht="28" customHeight="1" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" ht="28" customHeight="1" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" ht="28" customHeight="1" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" ht="42" customHeight="1" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" ht="42" customHeight="1" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" ht="42" customHeight="1" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" ht="42" customHeight="1" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" ht="42" customHeight="1" spans="1:9">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" ht="42" customHeight="1" spans="1:9">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" ht="42" customHeight="1" spans="1:9">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" ht="42" customHeight="1" spans="1:9">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" ht="42" customHeight="1" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" ht="42" customHeight="1" spans="1:9">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" ht="42" customHeight="1" spans="1:9">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" ht="42" customHeight="1" spans="1:9">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" ht="42" customHeight="1" spans="1:9">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" ht="42" customHeight="1" spans="1:9">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/static/excel/裁剪工艺.xlsx
+++ b/src/main/resources/static/excel/裁剪工艺.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>编码</t>
   </si>
@@ -34,13 +34,22 @@
     <t>创建人</t>
   </si>
   <si>
-    <t>创建</t>
-  </si>
-  <si>
     <t>修改者</t>
   </si>
   <si>
-    <t>修改</t>
+    <t>CJ-01</t>
+  </si>
+  <si>
+    <t>对条、对格要求</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>E后技术负责人</t>
   </si>
 </sst>
 </file>
@@ -53,7 +62,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -66,6 +75,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -530,51 +544,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,104 +595,111 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1001,15 +1019,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD68"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,11 +1049,26 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" ht="25.2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
